--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema7a-Itga1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H2">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I2">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J2">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N2">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P2">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q2">
-        <v>3054.408174719363</v>
+        <v>3664.939643567709</v>
       </c>
       <c r="R2">
-        <v>3054.408174719363</v>
+        <v>32984.45679210938</v>
       </c>
       <c r="S2">
-        <v>0.5757870552900946</v>
+        <v>0.5123429000615634</v>
       </c>
       <c r="T2">
-        <v>0.5757870552900946</v>
+        <v>0.5123429000615634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H3">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I3">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J3">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N3">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P3">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q3">
-        <v>534.237830215171</v>
+        <v>589.2354739739583</v>
       </c>
       <c r="R3">
-        <v>534.237830215171</v>
+        <v>5303.119265765625</v>
       </c>
       <c r="S3">
-        <v>0.100709273118818</v>
+        <v>0.08237260116542772</v>
       </c>
       <c r="T3">
-        <v>0.100709273118818</v>
+        <v>0.0823726011654277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H4">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I4">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J4">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N4">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P4">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q4">
-        <v>7.175465476844408</v>
+        <v>8.374980838541669</v>
       </c>
       <c r="R4">
-        <v>7.175465476844408</v>
+        <v>75.37482754687501</v>
       </c>
       <c r="S4">
-        <v>0.001352648336736324</v>
+        <v>0.001170786530771196</v>
       </c>
       <c r="T4">
-        <v>0.001352648336736324</v>
+        <v>0.001170786530771196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.0002692503681</v>
+        <v>48.484375</v>
       </c>
       <c r="H5">
-        <v>44.0002692503681</v>
+        <v>145.453125</v>
       </c>
       <c r="I5">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297807</v>
       </c>
       <c r="J5">
-        <v>0.7695753093292824</v>
+        <v>0.7776469276297806</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N5">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P5">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q5">
-        <v>486.5855484356472</v>
+        <v>1300.187383541667</v>
       </c>
       <c r="R5">
-        <v>486.5855484356472</v>
+        <v>11701.686451875</v>
       </c>
       <c r="S5">
-        <v>0.09172633258363341</v>
+        <v>0.1817606398720184</v>
       </c>
       <c r="T5">
-        <v>0.09172633258363341</v>
+        <v>0.1817606398720184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H6">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I6">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J6">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N6">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O6">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P6">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q6">
-        <v>786.1750546567532</v>
+        <v>867.1310849860012</v>
       </c>
       <c r="R6">
-        <v>786.1750546567532</v>
+        <v>7804.17976487401</v>
       </c>
       <c r="S6">
-        <v>0.1482020063362789</v>
+        <v>0.1212212199988035</v>
       </c>
       <c r="T6">
-        <v>0.1482020063362789</v>
+        <v>0.1212212199988035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H7">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I7">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J7">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N7">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O7">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P7">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q7">
-        <v>137.5076385813127</v>
+        <v>139.4141365345625</v>
       </c>
       <c r="R7">
-        <v>137.5076385813127</v>
+        <v>1254.727228811062</v>
       </c>
       <c r="S7">
-        <v>0.02592159062234805</v>
+        <v>0.01948950050161362</v>
       </c>
       <c r="T7">
-        <v>0.02592159062234805</v>
+        <v>0.01948950050161361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H8">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I8">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J8">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N8">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O8">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P8">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q8">
-        <v>1.846895254582045</v>
+        <v>1.981535012181556</v>
       </c>
       <c r="R8">
-        <v>1.846895254582045</v>
+        <v>17.833815109634</v>
       </c>
       <c r="S8">
-        <v>0.0003481585692661235</v>
+        <v>0.0002770101266187108</v>
       </c>
       <c r="T8">
-        <v>0.0003481585692661235</v>
+        <v>0.0002770101266187107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.3252427652366</v>
+        <v>11.47148733333333</v>
       </c>
       <c r="H9">
-        <v>11.3252427652366</v>
+        <v>34.414462</v>
       </c>
       <c r="I9">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="J9">
-        <v>0.1980812243373547</v>
+        <v>0.1839926137051496</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N9">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O9">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P9">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q9">
-        <v>125.2424031937803</v>
+        <v>307.6265931293956</v>
       </c>
       <c r="R9">
-        <v>125.2424031937803</v>
+        <v>2768.63933816456</v>
       </c>
       <c r="S9">
-        <v>0.02360946880946166</v>
+        <v>0.04300488307811374</v>
       </c>
       <c r="T9">
-        <v>0.02360946880946166</v>
+        <v>0.04300488307811374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H10">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I10">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J10">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N10">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O10">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P10">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q10">
-        <v>23.17053069357042</v>
+        <v>26.94273705778667</v>
       </c>
       <c r="R10">
-        <v>23.17053069357042</v>
+        <v>242.48463352008</v>
       </c>
       <c r="S10">
-        <v>0.004367881067102452</v>
+        <v>0.003766479500967955</v>
       </c>
       <c r="T10">
-        <v>0.004367881067102452</v>
+        <v>0.003766479500967954</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H11">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I11">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J11">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N11">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O11">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P11">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q11">
-        <v>4.052691498510809</v>
+        <v>4.331753858010667</v>
       </c>
       <c r="R11">
-        <v>4.052691498510809</v>
+        <v>38.985784722096</v>
       </c>
       <c r="S11">
-        <v>0.0007639736310426614</v>
+        <v>0.0006055606776120293</v>
       </c>
       <c r="T11">
-        <v>0.0007639736310426614</v>
+        <v>0.0006055606776120292</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H12">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I12">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J12">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N12">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O12">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P12">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q12">
-        <v>0.05443258843004965</v>
+        <v>0.06156851914133335</v>
       </c>
       <c r="R12">
-        <v>0.05443258843004965</v>
+        <v>0.5541166722720001</v>
       </c>
       <c r="S12">
-        <v>1.026109740779344E-05</v>
+        <v>8.60701586306597E-06</v>
       </c>
       <c r="T12">
-        <v>1.026109740779344E-05</v>
+        <v>8.607015863065968E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.333783021414513</v>
+        <v>0.356432</v>
       </c>
       <c r="H13">
-        <v>0.333783021414513</v>
+        <v>1.069296</v>
       </c>
       <c r="I13">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930723</v>
       </c>
       <c r="J13">
-        <v>0.005837945456476664</v>
+        <v>0.005716857228930722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N13">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O13">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P13">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q13">
-        <v>3.691204560802306</v>
+        <v>9.558303876053335</v>
       </c>
       <c r="R13">
-        <v>3.691204560802306</v>
+        <v>86.02473488448001</v>
       </c>
       <c r="S13">
-        <v>0.0006958296609237572</v>
+        <v>0.001336210034487673</v>
       </c>
       <c r="T13">
-        <v>0.0006958296609237572</v>
+        <v>0.001336210034487673</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H14">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I14">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J14">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.41794281619789</v>
+        <v>75.59011833333334</v>
       </c>
       <c r="N14">
-        <v>69.41794281619789</v>
+        <v>226.770355</v>
       </c>
       <c r="O14">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="P14">
-        <v>0.7481880568542635</v>
+        <v>0.6588374259037486</v>
       </c>
       <c r="Q14">
-        <v>105.1991646043253</v>
+        <v>153.8446623543861</v>
       </c>
       <c r="R14">
-        <v>105.1991646043253</v>
+        <v>1384.601961189475</v>
       </c>
       <c r="S14">
-        <v>0.01983111416078755</v>
+        <v>0.02150682634241368</v>
       </c>
       <c r="T14">
-        <v>0.01983111416078755</v>
+        <v>0.02150682634241368</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H15">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I15">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J15">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1416945695327</v>
+        <v>12.15310033333333</v>
       </c>
       <c r="N15">
-        <v>12.1416945695327</v>
+        <v>36.459301</v>
       </c>
       <c r="O15">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="P15">
-        <v>0.1308634410407351</v>
+        <v>0.1059254505338229</v>
       </c>
       <c r="Q15">
-        <v>18.40008611286116</v>
+        <v>24.73457719824944</v>
       </c>
       <c r="R15">
-        <v>18.40008611286116</v>
+        <v>222.611194784245</v>
       </c>
       <c r="S15">
-        <v>0.003468603668526362</v>
+        <v>0.003457788189169565</v>
       </c>
       <c r="T15">
-        <v>0.003468603668526362</v>
+        <v>0.003457788189169564</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H16">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I16">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J16">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.163077762911289</v>
+        <v>0.1727356666666667</v>
       </c>
       <c r="N16">
-        <v>0.163077762911289</v>
+        <v>0.5182070000000001</v>
       </c>
       <c r="O16">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="P16">
-        <v>0.001757655580082493</v>
+        <v>0.001505550255743542</v>
       </c>
       <c r="Q16">
-        <v>0.247135592439463</v>
+        <v>0.3515599776905556</v>
       </c>
       <c r="R16">
-        <v>0.247135592439463</v>
+        <v>3.164039799215</v>
       </c>
       <c r="S16">
-        <v>4.658757667225192E-05</v>
+        <v>4.914658249056923E-05</v>
       </c>
       <c r="T16">
-        <v>4.658757667225192E-05</v>
+        <v>4.914658249056923E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.51544630014271</v>
+        <v>2.035248333333333</v>
       </c>
       <c r="H17">
-        <v>1.51544630014271</v>
+        <v>6.105745</v>
       </c>
       <c r="I17">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="J17">
-        <v>0.02650552087688613</v>
+        <v>0.03264360143613892</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.0586947926819</v>
+        <v>26.81662666666667</v>
       </c>
       <c r="N17">
-        <v>11.0586947926819</v>
+        <v>80.44988000000001</v>
       </c>
       <c r="O17">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="P17">
-        <v>0.1191908465249188</v>
+        <v>0.233731573306685</v>
       </c>
       <c r="Q17">
-        <v>16.75885810797724</v>
+        <v>54.57849472895555</v>
       </c>
       <c r="R17">
-        <v>16.75885810797724</v>
+        <v>491.2064525606</v>
       </c>
       <c r="S17">
-        <v>0.003159215470899967</v>
+        <v>0.007629840322065111</v>
       </c>
       <c r="T17">
-        <v>0.003159215470899967</v>
+        <v>0.007629840322065111</v>
       </c>
     </row>
   </sheetData>
